--- a/BT12/Bài tập 12.2.xlsx
+++ b/BT12/Bài tập 12.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1C2B57-191B-4DBE-8759-D4786C325FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837578DE-E567-46E9-AB2E-ADC59EEBCBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1716" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>0ctf{Too_Simple_Sometimes_Naive!!!}</t>
+  </si>
+  <si>
+    <t>alictf{Jan6N100p3r}</t>
   </si>
 </sst>
 </file>
@@ -475,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -555,7 +558,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -568,8 +571,8 @@
       <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="5"/>
     </row>

--- a/BT12/Bài tập 12.2.xlsx
+++ b/BT12/Bài tập 12.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837578DE-E567-46E9-AB2E-ADC59EEBCBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178F70B-026D-4809-AA84-9F9753CA2B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1716" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>alictf{Jan6N100p3r}</t>
+  </si>
+  <si>
+    <t>alictf{Y0vAr3TimerMa3te7}</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -576,7 +579,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -589,8 +592,8 @@
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
+      <c r="E8" t="s">
+        <v>23</v>
       </c>
       <c r="F8" s="5"/>
     </row>

--- a/BT12/Bài tập 12.2.xlsx
+++ b/BT12/Bài tập 12.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178F70B-026D-4809-AA84-9F9753CA2B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9966F4-26BF-43EE-9547-ABC00B2B9BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1716" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -107,6 +107,31 @@
   </si>
   <si>
     <t>alictf{Y0vAr3TimerMa3te7}</t>
+  </si>
+  <si>
+    <t>PvrMb7Fv3Al1
+PvrMa7iv3Al1
+PvrNb7Fv3Al1
+PvrNa7iv3Al1
+PvrOb7Fv3Al1
+PvrOa7iv3Al1
+PvrPb7Fv3Al1
+PvrPa7iv3Al1
+PvrQb7Fv3Al1
+PvrQa7iv3Al1
+PvrRb7Fv3Al1
+PvrRa7iv3Al1
+PvrSb7Fv3Al1
+PvrSa7iv3Al1
+PvrTb7Fv3Al1
+PvrTa7iv3Al1
+PvrUb7Fv3Al1
+PvrUa7iv3Al1
+PvrVb7Fv3Al1
+PvrVa7iv3Al1</t>
+  </si>
+  <si>
+    <t>iwantashellbecauseidonthaveitttt</t>
   </si>
 </sst>
 </file>
@@ -177,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -195,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -497,13 +525,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -543,7 +571,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="276" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -556,8 +584,8 @@
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -597,7 +625,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -610,8 +638,8 @@
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
+      <c r="E9" t="s">
+        <v>25</v>
       </c>
       <c r="F9" s="5"/>
     </row>

--- a/BT12/Bài tập 12.2.xlsx
+++ b/BT12/Bài tập 12.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9966F4-26BF-43EE-9547-ABC00B2B9BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1194DA-D8CE-4236-ABE1-0977FC3E5411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Tìm Flag</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>iwantashellbecauseidonthaveitttt</t>
+  </si>
+  <si>
+    <t>NdkMobiL4cRackEr</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -558,16 +558,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -576,16 +576,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -594,16 +594,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -612,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -630,16 +630,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -648,16 +648,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5"/>
     </row>
